--- a/biology/Botanique/Orpin_des_Alpes/Orpin_des_Alpes.xlsx
+++ b/biology/Botanique/Orpin_des_Alpes/Orpin_des_Alpes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Sedum alpestre
 L'Orpin des Alpes ou Orpin alpestre (Sedum alpestre) est une espèce de plantes vivaces de la famille des Crassulacées.
@@ -512,9 +524,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La floraison a lieu de juin à août[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La floraison a lieu de juin à août.
 </t>
         </is>
       </c>
@@ -543,7 +557,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">En France : Alpes, Massif central, Pyrénées, au Hohneck dans le massif des Vosges.
 </t>
@@ -574,9 +590,11 @@
           <t>Utilisations</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les feuilles tendres peuvent être ajoutées dans les salades[1].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les feuilles tendres peuvent être ajoutées dans les salades.
 </t>
         </is>
       </c>
